--- a/contatos.xlsx
+++ b/contatos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\recuperadorcarrinho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6BEF40-42D6-46B3-8FBE-F7F8DB0E1132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D38925-066B-408D-8ABF-B29AA40F603B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7575" yWindow="3105" windowWidth="28800" windowHeight="11295" xr2:uid="{964094B7-4A49-4915-BBC4-C2CED67971B9}"/>
+    <workbookView xWindow="6150" yWindow="1785" windowWidth="28800" windowHeight="11295" xr2:uid="{964094B7-4A49-4915-BBC4-C2CED67971B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Contatos" sheetId="1" r:id="rId1"/>
@@ -35,12 +35,192 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <t>nome</t>
   </si>
   <si>
     <t>telefone</t>
+  </si>
+  <si>
+    <t>Tays Suellen de Macedo siebra</t>
+  </si>
+  <si>
+    <t>Camila Ramos</t>
+  </si>
+  <si>
+    <t>Ana Cláudia Maria da masceno</t>
+  </si>
+  <si>
+    <t>Rafaella santos</t>
+  </si>
+  <si>
+    <t>MANOELA SOUSA DA PAIXÃO</t>
+  </si>
+  <si>
+    <t>Caroline Aumendo Leal Nalim Barreto</t>
+  </si>
+  <si>
+    <t>Mariana de Souza marques</t>
+  </si>
+  <si>
+    <t>Nátalie Leme da Silva Araujo</t>
+  </si>
+  <si>
+    <t>Mariana de Souza Marques</t>
+  </si>
+  <si>
+    <t>Ana Carla Ferreira</t>
+  </si>
+  <si>
+    <t>Luana Braz dos Santos</t>
+  </si>
+  <si>
+    <t>Eliane Sampaio</t>
+  </si>
+  <si>
+    <t>Lilian Cristina Sousa cardoso</t>
+  </si>
+  <si>
+    <t>Bruna</t>
+  </si>
+  <si>
+    <t>Edna Schwanz</t>
+  </si>
+  <si>
+    <t>Elane</t>
+  </si>
+  <si>
+    <t>Lucicleide José da Silva Souza</t>
+  </si>
+  <si>
+    <t>Laise de Souza Resende</t>
+  </si>
+  <si>
+    <t>Lilian dos Santos arruda da Silva</t>
+  </si>
+  <si>
+    <t>Ellen de Monte Silva</t>
+  </si>
+  <si>
+    <t>Luanna Morais Cavalcante</t>
+  </si>
+  <si>
+    <t>Clenio Reginaldo França Dias</t>
+  </si>
+  <si>
+    <t>Kananda Neuza Ghisleri Ferreira Vieira</t>
+  </si>
+  <si>
+    <t>Tatiane Silva</t>
+  </si>
+  <si>
+    <t>Geyciara Teixeira</t>
+  </si>
+  <si>
+    <t>Marcela de Sousa Oliveira</t>
+  </si>
+  <si>
+    <t>Kelly Cristina de Jesus de Oliveira</t>
+  </si>
+  <si>
+    <t>Maria Daniela Brito</t>
+  </si>
+  <si>
+    <t>Jéssica Fernanda de Souza castilho</t>
+  </si>
+  <si>
+    <t>Simone da Silva pereira</t>
+  </si>
+  <si>
+    <t>+55 88 98101 2922</t>
+  </si>
+  <si>
+    <t>+55 71 98360 3252</t>
+  </si>
+  <si>
+    <t>+55 89 97400 1758</t>
+  </si>
+  <si>
+    <t>+55 87 98857 5448</t>
+  </si>
+  <si>
+    <t>+55 89 99474 1556</t>
+  </si>
+  <si>
+    <t>+55 28 99908 2412</t>
+  </si>
+  <si>
+    <t>+55 81 5681 43</t>
+  </si>
+  <si>
+    <t>+55 11 98406 6547</t>
+  </si>
+  <si>
+    <t>+55 88 98156 8143</t>
+  </si>
+  <si>
+    <t>+55 91 99247 1405</t>
+  </si>
+  <si>
+    <t>+55 69 99976 0623</t>
+  </si>
+  <si>
+    <t>+55 94 99132 3199</t>
+  </si>
+  <si>
+    <t>+55 38 99255 5303</t>
+  </si>
+  <si>
+    <t>+55 71 99282 1210</t>
+  </si>
+  <si>
+    <t>+55 69 98451 2410</t>
+  </si>
+  <si>
+    <t>+55 21 99958 2951</t>
+  </si>
+  <si>
+    <t>+55 81 99870 5871</t>
+  </si>
+  <si>
+    <t>+55 62 99444 5747</t>
+  </si>
+  <si>
+    <t>+55 85 99402 3021</t>
+  </si>
+  <si>
+    <t>+55 11 96289 3986</t>
+  </si>
+  <si>
+    <t>+55 85 98788 5267</t>
+  </si>
+  <si>
+    <t>+55 67 99188 2653</t>
+  </si>
+  <si>
+    <t>+55 47 95887 8393</t>
+  </si>
+  <si>
+    <t>+55 79 99682 6647</t>
+  </si>
+  <si>
+    <t>+55 48 99128 3586</t>
+  </si>
+  <si>
+    <t>+55 85 98200 2254</t>
+  </si>
+  <si>
+    <t>+55 17 98810 1554</t>
+  </si>
+  <si>
+    <t>+55 88 99317 5320</t>
+  </si>
+  <si>
+    <t>+55 44 98414 1264</t>
+  </si>
+  <si>
+    <t>+55 82 98895 4485</t>
   </si>
 </sst>
 </file>
@@ -392,16 +572,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB5E6783-A63E-41DA-BC5A-321C9CC390C4}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -412,6 +592,254 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/contatos.xlsx
+++ b/contatos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\recuperadorcarrinho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D38925-066B-408D-8ABF-B29AA40F603B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8CF9A0-9209-4DFB-BC26-6B1CEA19CFFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6150" yWindow="1785" windowWidth="28800" windowHeight="11295" xr2:uid="{964094B7-4A49-4915-BBC4-C2CED67971B9}"/>
+    <workbookView xWindow="3990" yWindow="3105" windowWidth="28800" windowHeight="11295" xr2:uid="{964094B7-4A49-4915-BBC4-C2CED67971B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Contatos" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>nome</t>
   </si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>+55 82 98895 4485</t>
+  </si>
+  <si>
+    <t>oi</t>
   </si>
 </sst>
 </file>
@@ -572,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB5E6783-A63E-41DA-BC5A-321C9CC390C4}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,6 +843,14 @@
         <v>61</v>
       </c>
     </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33">
+        <v>333</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
